--- a/Docs/容易接口一览 V1.0.xlsx
+++ b/Docs/容易接口一览 V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20565" windowHeight="10980"/>
+    <workbookView windowWidth="27720" windowHeight="13245"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>V1.0版本为测试版本，实现基本功能为文本操作，文件(视频，图片等)复杂数据未实现，需要测试业务逻辑的正确性</t>
+  </si>
+  <si>
+    <t>测试服</t>
+  </si>
+  <si>
+    <t>115.28.192.61:8088 (测试服务器)</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>115.28.192.61:8088/rongyi</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
@@ -695,12 +713,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,7 +734,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3" tint="-0.25"/>
+      <color theme="4"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -730,7 +748,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="3" tint="-0.25"/>
+      <color theme="4"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -739,36 +757,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,48 +791,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,6 +850,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -896,30 +907,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,49 +936,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,6 +1002,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1058,6 +1027,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,6 +1146,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1163,197 +1218,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1367,9 +1378,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1379,17 +1396,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1737,8 +1748,8 @@
   <sheetPr/>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1747,59 +1758,100 @@
     <col min="2" max="2" width="17.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="94.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="94.125" style="4" customWidth="1"/>
     <col min="10" max="10" width="52.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="79.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="79.375" style="4" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
+      <c r="A5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1808,955 +1860,954 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>12</v>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>12</v>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>12</v>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>33</v>
+        <v>48</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>33</v>
+        <v>51</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>9</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>33</v>
+        <v>54</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>33</v>
+        <v>57</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>12</v>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>33</v>
+        <v>60</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>12</v>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>33</v>
+        <v>63</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>12</v>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>14</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>12</v>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>33</v>
+        <v>70</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>15</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>12</v>
+      <c r="B20" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>33</v>
+        <v>73</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>12</v>
+      <c r="B21" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>12</v>
+      <c r="B22" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>18</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>12</v>
+      <c r="B23" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>19</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>12</v>
+      <c r="B24" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>33</v>
+        <v>88</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>12</v>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>33</v>
+        <v>91</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>21</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>12</v>
+      <c r="B26" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>22</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>12</v>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>12</v>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>33</v>
+        <v>102</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>12</v>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>98</v>
+        <v>103</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>33</v>
+        <v>105</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>25</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>12</v>
+      <c r="B30" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>103</v>
+        <v>108</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>12</v>
+      <c r="B31" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>33</v>
+        <v>112</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>12</v>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="5"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2766,34 +2817,34 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2801,34 +2852,34 @@
         <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>119</v>
+        <v>124</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>33</v>
+        <v>126</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2836,34 +2887,34 @@
         <v>3</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K37" s="10" t="s">
-        <v>33</v>
+        <v>129</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2871,34 +2922,34 @@
         <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2906,34 +2957,34 @@
         <v>5</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>129</v>
+        <v>134</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>117</v>
+        <v>136</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2941,34 +2992,34 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>132</v>
+        <v>137</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>103</v>
+        <v>139</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2976,34 +3027,34 @@
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>135</v>
+        <v>140</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>33</v>
+        <v>142</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3011,34 +3062,34 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>140</v>
+        <v>145</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3046,34 +3097,34 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3081,44 +3132,43 @@
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -3128,34 +3178,34 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>152</v>
+        <v>157</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3163,34 +3213,34 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>33</v>
+        <v>163</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -3198,34 +3248,34 @@
         <v>3</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>33</v>
+        <v>166</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -3233,34 +3283,34 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3268,34 +3318,34 @@
         <v>5</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>166</v>
+        <v>157</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>154</v>
+        <v>173</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -3303,34 +3353,34 @@
         <v>6</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>169</v>
+        <v>157</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>103</v>
+        <v>176</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -3338,34 +3388,34 @@
         <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>171</v>
+        <v>157</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>33</v>
+        <v>178</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -3373,34 +3423,34 @@
         <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>174</v>
+        <v>157</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -3408,34 +3458,34 @@
         <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>177</v>
+        <v>157</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>144</v>
+        <v>184</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -3443,44 +3493,43 @@
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>179</v>
+        <v>157</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>181</v>
+        <v>186</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="5"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -3490,34 +3539,34 @@
         <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>188</v>
+        <v>193</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -3525,34 +3574,34 @@
         <v>2</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>33</v>
+        <v>197</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -3560,34 +3609,34 @@
         <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="J61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="K61" s="10" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -3595,34 +3644,34 @@
         <v>4</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -3630,34 +3679,34 @@
         <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>200</v>
+        <v>191</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>33</v>
+        <v>207</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -3665,34 +3714,34 @@
         <v>6</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>203</v>
+        <v>191</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>33</v>
+        <v>210</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -3700,34 +3749,34 @@
         <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>206</v>
+        <v>191</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>208</v>
+        <v>213</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -3735,34 +3784,34 @@
         <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I66" s="10" t="s">
-        <v>210</v>
+        <v>191</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3770,34 +3819,34 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>214</v>
+        <v>191</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K67" s="10" t="s">
-        <v>216</v>
+        <v>221</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -3805,34 +3854,34 @@
         <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>218</v>
+        <v>191</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -3840,34 +3889,34 @@
         <v>11</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>222</v>
+        <v>191</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>33</v>
+        <v>229</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
